--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>PLCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,156 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42763</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42399</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42035</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41671</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41307</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40936</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1938100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1870300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1785300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1725800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1761300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1765800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1809500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1715900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1215400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1254500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1158900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1113700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1139000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1110300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1118000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1056200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>655300</v>
+      </c>
+      <c r="E10" s="3">
         <v>683600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>711400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>671600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>625100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>622300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>655500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>691400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>659600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,69 +890,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E15" s="3">
         <v>68900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>68200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>65700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>62700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>60500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>64900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>68100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>73500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1774300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1826800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1708800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1637900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1635700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1681300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1689500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1719800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1610400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E18" s="3">
         <v>111300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>161500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>147400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>90100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>89700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,158 +1052,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E21" s="3">
         <v>180900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>231600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>214700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>153200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>141000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>141800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>179800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E23" s="3">
         <v>108500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>161200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>89400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>79900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>76500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>104800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>136500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>102300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>136500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>102300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,20 +1346,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-51800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1313,15 +1373,18 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1445,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E33" s="3">
         <v>101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>84700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>102300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>63200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E35" s="3">
         <v>101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>84700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>102300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>63200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42763</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42399</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42035</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41671</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41307</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40936</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,188 +1648,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E41" s="3">
         <v>69100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>193700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>174000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>194100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>15000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>49300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>40100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>52000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>62500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E43" s="3">
         <v>42300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E44" s="3">
         <v>303500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>324400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>286300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>268800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>297600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>322400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>267000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>237800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E45" s="3">
         <v>20400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>64600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>449900</v>
+      </c>
+      <c r="E46" s="3">
         <v>435400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>656500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>611200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>581300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>609300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>629300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>545200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>488900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,69 +1876,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>630700</v>
+      </c>
+      <c r="E48" s="3">
         <v>260400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>258500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>264300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>291000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>310300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>312100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>330100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>75500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2008,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E52" s="3">
         <v>31300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>49200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>48100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="E54" s="3">
         <v>727000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>940200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>910500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>897900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>958600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>990600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>923400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>866300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,52 +2140,56 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>213100</v>
+      </c>
+      <c r="E57" s="3">
         <v>194800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>210300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>178200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>154500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>155300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>150700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>87500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E58" s="3">
         <v>48900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2070,69 +2203,78 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E59" s="3">
         <v>87800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>257400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>120500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>119100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>120700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>104000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E60" s="3">
         <v>331400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>360500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>329200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>275000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>274500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>271300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>191500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2160,39 +2302,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>351200</v>
+      </c>
+      <c r="E62" s="3">
         <v>81200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>85000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>95000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>102500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>111000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>109700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>946200</v>
+      </c>
+      <c r="E66" s="3">
         <v>412600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>466500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>414200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>370200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>369500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>373900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>302500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>241300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E72" s="3">
         <v>180800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>226300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>274900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>321100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>374100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>389600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>389700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>399500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>235200</v>
+      </c>
+      <c r="E76" s="3">
         <v>314400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>473700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>496300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>527800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>589100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>616800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>620900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>625000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42763</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42399</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42035</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41671</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41307</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40936</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E81" s="3">
         <v>101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>84700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>102300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>63200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E83" s="3">
         <v>68900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>177900</v>
+      </c>
+      <c r="E89" s="3">
         <v>139900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>214400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>199300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>182700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>161400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>173500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>205000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>156100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-71100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-72200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-72600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-90200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-44300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-119700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-105200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3294,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-33000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-14800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-11500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3423,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-259200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-140600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-155000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-131400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-87600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-82300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-85000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-175400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PLCE</t>
   </si>
@@ -1109,8 +1109,8 @@
       <c r="I21" s="3">
         <v>141000</v>
       </c>
-      <c r="J21" s="3">
-        <v>141800</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>167500</v>
@@ -2925,8 +2925,8 @@
       <c r="I83" s="3">
         <v>60500</v>
       </c>
-      <c r="J83" s="3">
-        <v>64900</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>77400</v>
@@ -3270,8 +3270,8 @@
       <c r="I94" s="3">
         <v>-61700</v>
       </c>
-      <c r="J94" s="3">
-        <v>-119700</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-105200</v>
@@ -3450,8 +3450,8 @@
       <c r="I100" s="3">
         <v>-87600</v>
       </c>
-      <c r="J100" s="3">
-        <v>-64100</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-82300</v>
@@ -3483,8 +3483,8 @@
       <c r="I101" s="3">
         <v>-12800</v>
       </c>
-      <c r="J101" s="3">
-        <v>-9800</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>PLCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42763</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42399</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42035</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41671</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41307</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40936</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1522600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1870700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1938100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1870300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1785300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1725800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1761300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1765800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1809500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1715900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1132100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1215400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1254500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1158900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1113700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1139000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1110300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1118000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1056200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E10" s="3">
         <v>655300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>683600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>711400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>671600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>625100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>622300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>655500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>691400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>659600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,75 +910,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E15" s="3">
         <v>74800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>68900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>68200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>62700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>60500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>68100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>73500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1722500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1774300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1826800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1708800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1637900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1635700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1681300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1689500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1719800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1610400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-199900</v>
+      </c>
+      <c r="E18" s="3">
         <v>96400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>111300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>161500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>147400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>90100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>80000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>105400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E21" s="3">
         <v>171400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>180900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>231600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>214700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>153200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>141000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>179800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="E23" s="3">
         <v>88400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>108500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>161200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>89400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>79900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>104800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="E24" s="3">
         <v>15100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>44700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E26" s="3">
         <v>73300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>102300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E27" s="3">
         <v>73300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>136500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>102300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>57900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,23 +1407,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-51800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1376,15 +1437,18 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E33" s="3">
         <v>73300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>84700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>102300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E35" s="3">
         <v>73300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>101000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>84700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>102300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42763</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42399</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42035</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41671</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41307</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40936</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,206 +1735,225 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E41" s="3">
         <v>68500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>187500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>174000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>15000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>49300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>52000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>62500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E43" s="3">
         <v>36500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>388100</v>
+      </c>
+      <c r="E44" s="3">
         <v>327200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>303500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>324400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>286300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>268800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>297600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>322400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>267000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>237800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
         <v>17700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>64600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>547100</v>
+      </c>
+      <c r="E46" s="3">
         <v>449900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>435400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>656500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>611200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>581300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>609300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>629300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>545200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>488900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,50 +1984,56 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>465400</v>
+      </c>
+      <c r="E48" s="3">
         <v>630700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>260400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>258500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>264300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>291000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>310300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>312100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>330100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E49" s="3">
         <v>75500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -1939,15 +2050,18 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E52" s="3">
         <v>25300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1140100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1181400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>727000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>940200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>910500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>897900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>958600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>990600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>923400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>866300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,58 +2271,62 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>252100</v>
+      </c>
+      <c r="E57" s="3">
         <v>213100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>194800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>210300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>178200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>154500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>155300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>150700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>87500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E58" s="3">
         <v>170800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2206,80 +2340,89 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E59" s="3">
         <v>211100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>87800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>257400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>120500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>119100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>120700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>718500</v>
+      </c>
+      <c r="E60" s="3">
         <v>595000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>331400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>360500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>329200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>275000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>274500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>271300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>191500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>131600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>75300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2305,42 +2448,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E62" s="3">
         <v>351200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>81200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>95100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>95000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>102500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>109700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="E66" s="3">
         <v>946200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>412600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>466500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>414200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>370200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>369500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>373900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>302500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>241300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E72" s="3">
         <v>108200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>180800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>226300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>274900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>321100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>374100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>389600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>389700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>399500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E76" s="3">
         <v>235200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>314400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>473700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>496300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>527800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>589100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>616800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>620900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>625000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42763</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42399</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42035</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41671</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41307</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40936</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E81" s="3">
         <v>73300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>101000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>84700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>102300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E83" s="3">
         <v>74800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60500</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E89" s="3">
         <v>177900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>214400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>199300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>182700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>161400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>205000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>156100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-57500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-72200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-90200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-134400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61700</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-105200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-34900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-33000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-28100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-14800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-11500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,42 +3669,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-259200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-140600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-155000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-131400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-87600</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-82300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-85000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3469,63 +3718,69 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12800</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-175400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -2030,7 +2030,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E49" s="3">
         <v>75500</v>
@@ -2138,7 +2138,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55100</v>
+        <v>54000</v>
       </c>
       <c r="E52" s="3">
         <v>25300</v>

--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PLCE</t>
   </si>
@@ -1146,8 +1146,8 @@
       <c r="I21" s="3">
         <v>153200</v>
       </c>
-      <c r="J21" s="3">
-        <v>141000</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1742,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E41" s="3">
         <v>63500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>244500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>187500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>173300</v>
       </c>
       <c r="K41" s="3">
         <v>174000</v>
@@ -1783,20 +1783,20 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>15000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>49300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>52000</v>
       </c>
       <c r="K42" s="3">
         <v>62500</v>
@@ -1814,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E43" s="3">
         <v>83300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>42200</v>
       </c>
       <c r="K43" s="3">
         <v>26000</v>
@@ -1850,25 +1850,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>428800</v>
+      </c>
+      <c r="E44" s="3">
         <v>388100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>327200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>303500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>324400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>286300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>268800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>297600</v>
       </c>
       <c r="K44" s="3">
         <v>322400</v>
@@ -1886,25 +1886,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>64600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>44100</v>
       </c>
       <c r="K45" s="3">
         <v>44400</v>
@@ -1922,25 +1922,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>581500</v>
+      </c>
+      <c r="E46" s="3">
         <v>547100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>449900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>435400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>656500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>611200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>581300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>609300</v>
       </c>
       <c r="K46" s="3">
         <v>629300</v>
@@ -1994,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>349700</v>
+      </c>
+      <c r="E48" s="3">
         <v>465400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>630700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>260400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>258500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>264300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>291000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>310300</v>
       </c>
       <c r="K48" s="3">
         <v>312100</v>
@@ -2030,13 +2030,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E49" s="3">
         <v>73700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75500</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2138,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E52" s="3">
         <v>54000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>39000</v>
       </c>
       <c r="K52" s="3">
         <v>49200</v>
@@ -2210,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1037500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1140100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1181400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>727000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>940200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>910500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>897900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>958600</v>
       </c>
       <c r="K54" s="3">
         <v>990600</v>
@@ -2278,25 +2278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E57" s="3">
         <v>252100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>213100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>194800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>210300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>178200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>154500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>155300</v>
       </c>
       <c r="K57" s="3">
         <v>150700</v>
@@ -2314,22 +2314,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E58" s="3">
         <v>169800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>170800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2350,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E59" s="3">
         <v>296600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>211100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>87800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>257400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>120500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>119100</v>
       </c>
       <c r="K59" s="3">
         <v>120700</v>
@@ -2386,25 +2386,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>591800</v>
+      </c>
+      <c r="E60" s="3">
         <v>718500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>595000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>331400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>360500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>329200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>275000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>274500</v>
       </c>
       <c r="K60" s="3">
         <v>271300</v>
@@ -2422,10 +2422,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E61" s="3">
         <v>75300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2458,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E62" s="3">
         <v>252900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>351200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>81200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>85000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>95100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>95000</v>
       </c>
       <c r="K62" s="3">
         <v>102500</v>
@@ -2602,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1046800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>946200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>412600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>466500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>414200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>370200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>369500</v>
       </c>
       <c r="K66" s="3">
         <v>373900</v>
@@ -2797,26 +2797,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
         <v>-42800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>108200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>180800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>226300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>274900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>321100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>374100</v>
       </c>
       <c r="K72" s="3">
         <v>389600</v>
@@ -2942,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E76" s="3">
         <v>93400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>235200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>314400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>473700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>496300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>527800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>589100</v>
       </c>
       <c r="K76" s="3">
         <v>616800</v>
@@ -3124,8 +3124,8 @@
       <c r="I83" s="3">
         <v>62700</v>
       </c>
-      <c r="J83" s="3">
-        <v>60500</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3500,8 +3500,8 @@
       <c r="I94" s="3">
         <v>-30600</v>
       </c>
-      <c r="J94" s="3">
-        <v>-61700</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3696,8 +3696,8 @@
       <c r="I100" s="3">
         <v>-131400</v>
       </c>
-      <c r="J100" s="3">
-        <v>-87600</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3732,8 +3732,8 @@
       <c r="I101" s="3">
         <v>-6400</v>
       </c>
-      <c r="J101" s="3">
-        <v>-12800</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PLCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42763</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42399</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42035</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41671</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41307</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40936</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1915400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1522600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1870700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1938100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1870300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1785300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1725800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1761300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1765800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1809500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1715900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1119200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1132100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1215400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1254500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1158900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1113700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1139000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1110300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1118000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1056200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>796100</v>
+      </c>
+      <c r="E10" s="3">
         <v>390500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>655300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>683600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>711400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>671600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>625100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>622300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>655500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>691400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>659600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +854,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,9 +890,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,81 +929,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E14" s="3">
         <v>116600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E15" s="3">
         <v>66400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>74800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>68900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>68200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>65700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>62700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>60500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>68100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>73500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1643400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1722500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1774300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1826800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1708800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1637900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1635700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1681300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1689500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1719800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1610400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>271900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-199900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>111300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>161500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>147400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>90100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>89700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-133400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>171400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>180900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>231600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>214700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>153200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>167500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>179800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E22" s="3">
         <v>11900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-211800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>108500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>161200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>79900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>104800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-71400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>44700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-140400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>102300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-140400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>136500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>102300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>57900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,26 +1467,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-51800</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1440,15 +1500,18 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-140400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>84700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>102300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-140400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>84700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>102300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42763</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42399</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42035</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41671</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41307</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40936</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,8 +1821,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1763,17 +1849,20 @@
         <v>187500</v>
       </c>
       <c r="K41" s="3">
+        <v>187500</v>
+      </c>
+      <c r="L41" s="3">
         <v>174000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1799,17 +1888,20 @@
         <v>40100</v>
       </c>
       <c r="K42" s="3">
+        <v>40100</v>
+      </c>
+      <c r="L42" s="3">
         <v>62500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15000</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1817,35 +1909,38 @@
         <v>21900</v>
       </c>
       <c r="E43" s="3">
-        <v>83300</v>
+        <v>39500</v>
       </c>
       <c r="F43" s="3">
-        <v>36500</v>
+        <v>32800</v>
       </c>
       <c r="G43" s="3">
-        <v>42300</v>
+        <v>35100</v>
       </c>
       <c r="H43" s="3">
-        <v>47200</v>
+        <v>26100</v>
       </c>
       <c r="I43" s="3">
-        <v>31900</v>
+        <v>31400</v>
       </c>
       <c r="J43" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K43" s="3">
         <v>37800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1871,17 +1966,20 @@
         <v>268800</v>
       </c>
       <c r="K44" s="3">
+        <v>268800</v>
+      </c>
+      <c r="L44" s="3">
         <v>322400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>267000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>237800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1889,35 +1987,38 @@
         <v>76100</v>
       </c>
       <c r="E45" s="3">
-        <v>12100</v>
+        <v>55900</v>
       </c>
       <c r="F45" s="3">
-        <v>17700</v>
+        <v>21400</v>
       </c>
       <c r="G45" s="3">
-        <v>20400</v>
+        <v>27700</v>
       </c>
       <c r="H45" s="3">
-        <v>25400</v>
+        <v>46500</v>
       </c>
       <c r="I45" s="3">
-        <v>64600</v>
+        <v>65100</v>
       </c>
       <c r="J45" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K45" s="3">
         <v>47100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1943,17 +2044,20 @@
         <v>581300</v>
       </c>
       <c r="K46" s="3">
+        <v>581300</v>
+      </c>
+      <c r="L46" s="3">
         <v>629300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>545200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>488900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,9 +2091,12 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2015,22 +2122,25 @@
         <v>291000</v>
       </c>
       <c r="K48" s="3">
+        <v>291000</v>
+      </c>
+      <c r="L48" s="3">
         <v>312100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>330100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>323900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="E49" s="3">
         <v>73700</v>
@@ -2053,15 +2163,18 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,14 +2247,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34600</v>
+        <v>34400</v>
       </c>
       <c r="E52" s="3">
         <v>54000</v>
@@ -2159,17 +2278,20 @@
         <v>25700</v>
       </c>
       <c r="K52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="L52" s="3">
         <v>49200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,9 +2325,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2231,17 +2356,20 @@
         <v>897900</v>
       </c>
       <c r="K54" s="3">
+        <v>897900</v>
+      </c>
+      <c r="L54" s="3">
         <v>990600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>923400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>866300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,8 +2401,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2299,17 +2429,20 @@
         <v>154500</v>
       </c>
       <c r="K57" s="3">
+        <v>154500</v>
+      </c>
+      <c r="L57" s="3">
         <v>150700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>87500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2343,9 +2476,12 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2371,17 +2507,20 @@
         <v>120500</v>
       </c>
       <c r="K59" s="3">
+        <v>120500</v>
+      </c>
+      <c r="L59" s="3">
         <v>120700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2407,17 +2546,20 @@
         <v>275000</v>
       </c>
       <c r="K60" s="3">
+        <v>275000</v>
+      </c>
+      <c r="L60" s="3">
         <v>271300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>191500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>131600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2451,9 +2593,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2479,17 +2624,20 @@
         <v>95100</v>
       </c>
       <c r="K62" s="3">
+        <v>95100</v>
+      </c>
+      <c r="L62" s="3">
         <v>102500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>111000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>109700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,9 +2749,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2623,17 +2780,20 @@
         <v>370200</v>
       </c>
       <c r="K66" s="3">
+        <v>370200</v>
+      </c>
+      <c r="L66" s="3">
         <v>373900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>302500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>241300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,14 +2961,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>77900</v>
       </c>
       <c r="E72" s="3">
         <v>-42800</v>
@@ -2819,17 +2992,20 @@
         <v>321100</v>
       </c>
       <c r="K72" s="3">
+        <v>321100</v>
+      </c>
+      <c r="L72" s="3">
         <v>389600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>389700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>399500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,9 +3117,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2963,17 +3148,20 @@
         <v>527800</v>
       </c>
       <c r="K76" s="3">
+        <v>527800</v>
+      </c>
+      <c r="L76" s="3">
         <v>616800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>620900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>625000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42763</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42399</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42035</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41671</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41307</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40936</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-140400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>84700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>102300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E83" s="3">
         <v>66400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>65700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>77400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>177900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>214400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>199300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>182700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>205000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>156100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-57500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-90200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-79800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-134400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-105200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-77700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,8 +3761,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3538,35 +3771,38 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-34900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-33000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-28100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-14800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E100" s="3">
         <v>60900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-44400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-259200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-140600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-155000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-131400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-82300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-85000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
+        <v>200</v>
+      </c>
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-175400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PLCE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PLCE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42763</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42399</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41671</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41307</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40936</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1708500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1915400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1522600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1870700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1938100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1870300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1785300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1725800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1761300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1765800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1809500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1715900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1194300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1119200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1132100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1215400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1254500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1158900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1113700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1139000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1110300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1118000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1056200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>514200</v>
+      </c>
+      <c r="E10" s="3">
         <v>796100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>390500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>655300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>683600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>711400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>671600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>625100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>622300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>655500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>691400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>659600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +867,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,9 +906,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,87 +948,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E14" s="3">
         <v>13700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>116600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E15" s="3">
         <v>58400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>66400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>74800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>68900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>65700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>62700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>68100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>73500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1643400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1722500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1774300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1826800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1708800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1637900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1635700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1681300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1689500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1719800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1610400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>271900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-199900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>111300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>161500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>147400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>90100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>89700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="3">
         <v>330400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-133400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>180900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>231600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>214700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>153200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>167500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>179800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E22" s="3">
         <v>14900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>257000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-211800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>108500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>161200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>147000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>104800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E24" s="3">
         <v>69900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-71400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>44700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>187200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-140400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>73300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>102300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>187200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-140400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>136500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>102300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>74300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,18 +1542,18 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-51800</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1503,15 +1563,18 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>187200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-140400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>84700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>102300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>187200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-140400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>84700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>102300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42763</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42399</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41671</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41307</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40936</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,47 +1907,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E41" s="3">
         <v>54800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>244500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>187500</v>
       </c>
       <c r="K41" s="3">
         <v>187500</v>
       </c>
       <c r="L41" s="3">
+        <v>187500</v>
+      </c>
+      <c r="M41" s="3">
         <v>174000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>194100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1875,189 +1964,204 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>15000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>49300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>40100</v>
       </c>
       <c r="K42" s="3">
         <v>40100</v>
       </c>
       <c r="L42" s="3">
+        <v>40100</v>
+      </c>
+      <c r="M42" s="3">
         <v>62500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15000</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E43" s="3">
         <v>21900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>447800</v>
+      </c>
+      <c r="E44" s="3">
         <v>428800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>388100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>327200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>303500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>324400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>286300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>268800</v>
       </c>
       <c r="K44" s="3">
         <v>268800</v>
       </c>
       <c r="L44" s="3">
+        <v>268800</v>
+      </c>
+      <c r="M44" s="3">
         <v>322400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>267000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>237800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E45" s="3">
         <v>76100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>561900</v>
+      </c>
+      <c r="E46" s="3">
         <v>581500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>547100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>449900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>435400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>656500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>611200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>581300</v>
       </c>
       <c r="K46" s="3">
         <v>581300</v>
       </c>
       <c r="L46" s="3">
+        <v>581300</v>
+      </c>
+      <c r="M46" s="3">
         <v>629300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>545200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>488900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2094,63 +2198,69 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>305400</v>
+      </c>
+      <c r="E48" s="3">
         <v>349700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>465400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>630700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>260400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>258500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>264300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>291000</v>
       </c>
       <c r="K48" s="3">
         <v>291000</v>
       </c>
       <c r="L48" s="3">
+        <v>291000</v>
+      </c>
+      <c r="M48" s="3">
         <v>312100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>330100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>323900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E49" s="3">
         <v>71900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>75500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2166,15 +2276,18 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E52" s="3">
         <v>34400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>25700</v>
       </c>
       <c r="K52" s="3">
         <v>25700</v>
       </c>
       <c r="L52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="M52" s="3">
         <v>49200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>986300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1037500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1140100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1181400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>727000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>940200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>910500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>897900</v>
       </c>
       <c r="K54" s="3">
         <v>897900</v>
       </c>
       <c r="L54" s="3">
+        <v>897900</v>
+      </c>
+      <c r="M54" s="3">
         <v>990600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>923400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>866300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,71 +2531,75 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E57" s="3">
         <v>183800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>252100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>213100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>194800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>210300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>178200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>154500</v>
       </c>
       <c r="K57" s="3">
         <v>154500</v>
       </c>
       <c r="L57" s="3">
+        <v>154500</v>
+      </c>
+      <c r="M57" s="3">
         <v>150700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>87500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E58" s="3">
         <v>175300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>169800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>170800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2479,99 +2612,108 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E59" s="3">
         <v>232800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>296600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>211100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>87800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>128800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>257400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>120500</v>
       </c>
       <c r="K59" s="3">
         <v>120500</v>
       </c>
       <c r="L59" s="3">
+        <v>120500</v>
+      </c>
+      <c r="M59" s="3">
         <v>120700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>104000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>648400</v>
+      </c>
+      <c r="E60" s="3">
         <v>591800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>718500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>595000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>331400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>360500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>329200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>275000</v>
       </c>
       <c r="K60" s="3">
         <v>275000</v>
       </c>
       <c r="L60" s="3">
+        <v>275000</v>
+      </c>
+      <c r="M60" s="3">
         <v>271300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>191500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>131600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E61" s="3">
         <v>49700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2596,48 +2738,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E62" s="3">
         <v>170500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>252900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>351200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>81200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>85000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>95100</v>
       </c>
       <c r="K62" s="3">
         <v>95100</v>
       </c>
       <c r="L62" s="3">
+        <v>95100</v>
+      </c>
+      <c r="M62" s="3">
         <v>102500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>111000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>109700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>827800</v>
+      </c>
+      <c r="E66" s="3">
         <v>812000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1046800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>946200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>412600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>466500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>414200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>370200</v>
       </c>
       <c r="K66" s="3">
         <v>370200</v>
       </c>
       <c r="L66" s="3">
+        <v>370200</v>
+      </c>
+      <c r="M66" s="3">
         <v>373900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>302500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>241300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E72" s="3">
         <v>77900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>108200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>180800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>226300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>274900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>321100</v>
       </c>
       <c r="K72" s="3">
         <v>321100</v>
       </c>
       <c r="L72" s="3">
+        <v>321100</v>
+      </c>
+      <c r="M72" s="3">
         <v>389600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>389700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>399500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E76" s="3">
         <v>225500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>93400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>235200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>314400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>473700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>496300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>527800</v>
       </c>
       <c r="K76" s="3">
         <v>527800</v>
       </c>
       <c r="L76" s="3">
+        <v>527800</v>
+      </c>
+      <c r="M76" s="3">
         <v>616800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>620900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>625000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42763</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42399</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41671</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41307</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40936</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>187200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-140400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>84700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>102300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E83" s="3">
         <v>58400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>74800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>65700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>77400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>133300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>177900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>139900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>214400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>199300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>182700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>205000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>156100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-57500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-72600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-90200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-134400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-105200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77700</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,8 +3994,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3774,35 +4007,38 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-34900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-33000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-28100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-14800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-112700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>60900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-44400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-259200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-140600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-155000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-131400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-82300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-85000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
+        <v>200</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-175400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
